--- a/data???.xlsx
+++ b/data???.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaret/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaret/Desktop/Sophomore_Year/bc/examples/exercises/ICB2019_Exercise09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92CB92AE-3F19-7D42-8106-1A2583D47E03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F4B524-1CF8-FD40-AA87-77AE55751FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="1500" windowWidth="27640" windowHeight="15980" xr2:uid="{94B14014-234B-9140-BBF5-CF1A4B1809F8}"/>
+    <workbookView xWindow="1160" yWindow="1020" windowWidth="27640" windowHeight="15980" xr2:uid="{94B14014-234B-9140-BBF5-CF1A4B1809F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Birth Year</t>
+    <t>BirthYear</t>
   </si>
   <si>
-    <t>Average Height</t>
+    <t>AverageHeight</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D72E-1EFD-FF4A-B45B-5D638BEDB852}">
   <dimension ref="A2:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
